--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/93.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/93.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1213745120674116</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.791653919403709</v>
+        <v>-1.791763705125524</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1180004764525239</v>
+        <v>-0.1178675137449929</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03932612243193063</v>
+        <v>0.03796721916413596</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1123726289483316</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.722301669012718</v>
+        <v>-1.721724074131837</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1700389085926682</v>
+        <v>-0.1705579510885808</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01753182688969228</v>
+        <v>0.01631564506025665</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1145070852221174</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.725426292639698</v>
+        <v>-1.724480915590738</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2674603184482821</v>
+        <v>-0.2676652517956694</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0474862511661429</v>
+        <v>0.04681472850104328</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1264883524746804</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.752392105600083</v>
+        <v>-1.750018904246856</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3235083691173681</v>
+        <v>-0.3230240921000301</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08735676580516344</v>
+        <v>0.08589051649826111</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1383956688481728</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.720034593857245</v>
+        <v>-1.718721434640206</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3957040697033589</v>
+        <v>-0.3943201596878176</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1290539928710444</v>
+        <v>0.1280104185931285</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1415701943515328</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.59810169184448</v>
+        <v>-1.597668648163989</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.390583785622059</v>
+        <v>-0.3907722511111741</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1278237828660436</v>
+        <v>0.1270540629719875</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1324199716809576</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.30404612525003</v>
+        <v>-1.303957076831225</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5017119428462319</v>
+        <v>-0.5026445115609797</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1559935792423294</v>
+        <v>0.1557508308129837</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1124742005248029</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8464677756160414</v>
+        <v>-0.8467648069856177</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.57163873851472</v>
+        <v>-0.5740046208198257</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1689684217987908</v>
+        <v>0.1686854186047797</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.08171944146281333</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2360817293916247</v>
+        <v>-0.2351723376625933</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5538912666627051</v>
+        <v>-0.5588932261327159</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2172363243152786</v>
+        <v>0.2179255346800039</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.0390573049147841</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5083478038030662</v>
+        <v>0.5098872435911783</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7115057481065846</v>
+        <v>-0.7169633183221262</v>
       </c>
       <c r="G11" t="n">
-        <v>0.317842130024194</v>
+        <v>0.3170455736203611</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.01678747255568339</v>
       </c>
       <c r="E12" t="n">
-        <v>1.240730793711306</v>
+        <v>1.242573364075762</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8313984654556271</v>
+        <v>-0.834395615661167</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4536653655292191</v>
+        <v>0.4519917431922224</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.08440573973740469</v>
       </c>
       <c r="E13" t="n">
-        <v>2.088049065707981</v>
+        <v>2.089709879710766</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8607655361203693</v>
+        <v>-0.8639871371349526</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5120744191379969</v>
+        <v>0.5099262785144902</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.161437578286304</v>
       </c>
       <c r="E14" t="n">
-        <v>2.824404468983881</v>
+        <v>2.828627559749684</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.007858885890345</v>
+        <v>-1.011039012298909</v>
       </c>
       <c r="G14" t="n">
-        <v>0.649214473384121</v>
+        <v>0.647541460967801</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2448114042408954</v>
       </c>
       <c r="E15" t="n">
-        <v>3.604158778013789</v>
+        <v>3.608910060085656</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.161287481729703</v>
+        <v>-1.164051032316048</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7505668220013759</v>
+        <v>0.7487029044132338</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3355486061598187</v>
       </c>
       <c r="E16" t="n">
-        <v>4.425934181988931</v>
+        <v>4.428925232987703</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.297563278376875</v>
+        <v>-1.299697390824816</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8449971808582173</v>
+        <v>0.8425337112448319</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.433886632767814</v>
       </c>
       <c r="E17" t="n">
-        <v>5.072241506470425</v>
+        <v>5.073350342260753</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.436755105779579</v>
+        <v>-1.440618343346102</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9734501349054188</v>
+        <v>0.9714258081792919</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5393056933138166</v>
       </c>
       <c r="E18" t="n">
-        <v>5.64447152507816</v>
+        <v>5.645358349742152</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.593580349867747</v>
+        <v>-1.597012983436485</v>
       </c>
       <c r="G18" t="n">
-        <v>1.0939582622173</v>
+        <v>1.093535587188314</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6469576424607635</v>
       </c>
       <c r="E19" t="n">
-        <v>6.146565545225282</v>
+        <v>6.149257735092448</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.80897261701997</v>
+        <v>-1.815965967499563</v>
       </c>
       <c r="G19" t="n">
-        <v>1.267155607031416</v>
+        <v>1.265905269644082</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7525140039382773</v>
       </c>
       <c r="E20" t="n">
-        <v>6.609439226174797</v>
+        <v>6.610912794529821</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.009871949051306</v>
+        <v>-2.01854746075737</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4126643828832</v>
+        <v>1.411431733195492</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8510810393565422</v>
       </c>
       <c r="E21" t="n">
-        <v>6.953118548950147</v>
+        <v>6.95394316170511</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.314716402496753</v>
+        <v>-2.322242823647824</v>
       </c>
       <c r="G21" t="n">
-        <v>1.549930690709411</v>
+        <v>1.549345166859733</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9404562071250155</v>
       </c>
       <c r="E22" t="n">
-        <v>7.299063117118938</v>
+        <v>7.297521237648119</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.507774594307816</v>
+        <v>-2.515039359488562</v>
       </c>
       <c r="G22" t="n">
-        <v>1.734331668434712</v>
+        <v>1.732572047282294</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.018710344104146</v>
       </c>
       <c r="E23" t="n">
-        <v>7.54170542026691</v>
+        <v>7.53837647321322</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.738277036305795</v>
+        <v>-2.745974235246356</v>
       </c>
       <c r="G23" t="n">
-        <v>1.879882528813192</v>
+        <v>1.879537923630829</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.085774516212289</v>
       </c>
       <c r="E24" t="n">
-        <v>7.696933892023352</v>
+        <v>7.691784941670245</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.931241910253315</v>
+        <v>-2.93769487101331</v>
       </c>
       <c r="G24" t="n">
-        <v>2.013636913382687</v>
+        <v>2.011755918015596</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.139723932059892</v>
       </c>
       <c r="E25" t="n">
-        <v>7.861394123143052</v>
+        <v>7.855806029902686</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.08584887284015</v>
+        <v>-3.09212282188152</v>
       </c>
       <c r="G25" t="n">
-        <v>2.121867947392307</v>
+        <v>2.119947917101904</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.179040365857499</v>
       </c>
       <c r="E26" t="n">
-        <v>7.982318216356475</v>
+        <v>7.975177265073109</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.17623393280846</v>
+        <v>-3.180603099576345</v>
       </c>
       <c r="G26" t="n">
-        <v>2.16222944817611</v>
+        <v>2.160461898054894</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.201585294566002</v>
       </c>
       <c r="E27" t="n">
-        <v>7.892296364151169</v>
+        <v>7.88493828110688</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.240984941614064</v>
+        <v>-3.244044303728633</v>
       </c>
       <c r="G27" t="n">
-        <v>2.204789712999589</v>
+        <v>2.202398823946737</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.207334612360447</v>
       </c>
       <c r="E28" t="n">
-        <v>7.821489452946134</v>
+        <v>7.811501391943708</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.303621965354059</v>
+        <v>-3.306288843513141</v>
       </c>
       <c r="G28" t="n">
-        <v>2.24564098008682</v>
+        <v>2.244578498267925</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.196139803686471</v>
       </c>
       <c r="E29" t="n">
-        <v>7.836315404756525</v>
+        <v>7.826067517545805</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.330476772751277</v>
+        <v>-3.332308364543551</v>
       </c>
       <c r="G29" t="n">
-        <v>2.189664900057591</v>
+        <v>2.187571652294992</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.169866388440859</v>
       </c>
       <c r="E30" t="n">
-        <v>7.679834155930044</v>
+        <v>7.666352469291204</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.25776446935208</v>
+        <v>-3.25810023068463</v>
       </c>
       <c r="G30" t="n">
-        <v>2.188676828561259</v>
+        <v>2.186348151417435</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.129789101551288</v>
       </c>
       <c r="E31" t="n">
-        <v>7.456389716003392</v>
+        <v>7.4415113110148</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.236802410573265</v>
+        <v>-3.236338870858936</v>
       </c>
       <c r="G31" t="n">
-        <v>2.143077938926221</v>
+        <v>2.141534839614048</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.078713058759422</v>
       </c>
       <c r="E32" t="n">
-        <v>7.211052783305546</v>
+        <v>7.196464700559086</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.19414364356049</v>
+        <v>-3.193700536188833</v>
       </c>
       <c r="G32" t="n">
-        <v>2.055198128137653</v>
+        <v>2.053134156567538</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.01882403019013</v>
       </c>
       <c r="E33" t="n">
-        <v>7.021791957627917</v>
+        <v>7.006706179609231</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.116539776333775</v>
+        <v>-3.115986883240302</v>
       </c>
       <c r="G33" t="n">
-        <v>1.986843707973822</v>
+        <v>1.985576292807539</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9537670341687761</v>
       </c>
       <c r="E34" t="n">
-        <v>6.711513110952645</v>
+        <v>6.695133081257899</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.987260684729918</v>
+        <v>-2.985860611816443</v>
       </c>
       <c r="G34" t="n">
-        <v>1.806183373759017</v>
+        <v>1.804874483986715</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8860998350112327</v>
       </c>
       <c r="E35" t="n">
-        <v>6.454837752874053</v>
+        <v>6.43852847397781</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.933514474694879</v>
+        <v>-2.932560558756445</v>
       </c>
       <c r="G35" t="n">
-        <v>1.762004379459448</v>
+        <v>1.759193864980993</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8185778118231499</v>
       </c>
       <c r="E36" t="n">
-        <v>6.03759223775206</v>
+        <v>6.0216611096754</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.810220839652289</v>
+        <v>-2.808957693930744</v>
       </c>
       <c r="G36" t="n">
-        <v>1.691696383367992</v>
+        <v>1.689035909376017</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7524766774283691</v>
       </c>
       <c r="E37" t="n">
-        <v>5.64589507993769</v>
+        <v>5.631768097222851</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.689987786565621</v>
+        <v>-2.688994835703876</v>
       </c>
       <c r="G37" t="n">
-        <v>1.523520515485543</v>
+        <v>1.520080562868684</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6899538619341822</v>
       </c>
       <c r="E38" t="n">
-        <v>5.304428549377582</v>
+        <v>5.290623604780067</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.598134342568041</v>
+        <v>-2.596746773028439</v>
       </c>
       <c r="G38" t="n">
-        <v>1.471595528591274</v>
+        <v>1.467739000152196</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6321171574307418</v>
       </c>
       <c r="E39" t="n">
-        <v>4.939476413238615</v>
+        <v>4.925287218614748</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.496922275706437</v>
+        <v>-2.496459345912786</v>
       </c>
       <c r="G39" t="n">
-        <v>1.332637910728441</v>
+        <v>1.329144285092028</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5799676512479</v>
       </c>
       <c r="E40" t="n">
-        <v>4.587718081179061</v>
+        <v>4.57365331037325</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.493777524697125</v>
+        <v>-2.493290198076403</v>
       </c>
       <c r="G40" t="n">
-        <v>1.198824363853301</v>
+        <v>1.194842191754813</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5326355253867534</v>
       </c>
       <c r="E41" t="n">
-        <v>4.20051115938691</v>
+        <v>4.18680624178038</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.37296992633296</v>
+        <v>-2.370927911907208</v>
       </c>
       <c r="G41" t="n">
-        <v>1.148806598915223</v>
+        <v>1.145938751893153</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4893434258589174</v>
       </c>
       <c r="E42" t="n">
-        <v>3.822384736630184</v>
+        <v>3.809961872286179</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.300044150696901</v>
+        <v>-2.299195751035545</v>
       </c>
       <c r="G42" t="n">
-        <v>1.050131802068892</v>
+        <v>1.045692799383519</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4489049347511698</v>
       </c>
       <c r="E43" t="n">
-        <v>3.486036660389346</v>
+        <v>3.474906827880047</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.207696670951155</v>
+        <v>-2.207316690369541</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9122409354696907</v>
+        <v>0.9102129492195034</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4102331330303612</v>
       </c>
       <c r="E44" t="n">
-        <v>3.149338489680055</v>
+        <v>3.139384584235527</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.156630452369747</v>
+        <v>-2.155739358261018</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9036441035309268</v>
+        <v>0.9005670537167328</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3721134227832734</v>
       </c>
       <c r="E45" t="n">
-        <v>2.817792928847932</v>
+        <v>2.809008851261406</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.152767824723901</v>
+        <v>-2.15161080520011</v>
       </c>
       <c r="G45" t="n">
-        <v>0.793239312229377</v>
+        <v>0.7907386374547101</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3337062934465646</v>
       </c>
       <c r="E46" t="n">
-        <v>2.60300814268975</v>
+        <v>2.593248192020427</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.136406702570135</v>
+        <v>-2.13557477076705</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7213369834889021</v>
+        <v>0.7188966908612331</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2949750879023662</v>
       </c>
       <c r="E47" t="n">
-        <v>2.351556145286828</v>
+        <v>2.343134360582291</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.099499792499433</v>
+        <v>-2.099434530987021</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6760644014159239</v>
+        <v>0.674865907286114</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2565616407438016</v>
       </c>
       <c r="E48" t="n">
-        <v>2.102543830590898</v>
+        <v>2.093959806986346</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.097426062198489</v>
+        <v>-2.096489224039005</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6186861137508504</v>
+        <v>0.6182945446763781</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2191355813741393</v>
       </c>
       <c r="E49" t="n">
-        <v>1.939690130533753</v>
+        <v>1.931605631963457</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.048485417175549</v>
+        <v>-2.048118244928146</v>
       </c>
       <c r="G49" t="n">
-        <v>0.566730020902067</v>
+        <v>0.5655992279673762</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1835235117584449</v>
       </c>
       <c r="E50" t="n">
-        <v>1.789714295645466</v>
+        <v>1.781914020110535</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.042682631856968</v>
+        <v>-2.04202391752608</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5308538767750696</v>
+        <v>0.5305111013547371</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1505891761954521</v>
       </c>
       <c r="E51" t="n">
-        <v>1.574686761057938</v>
+        <v>1.567781239155796</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.988364316227139</v>
+        <v>-1.987629361811658</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4501418537796456</v>
+        <v>0.45007537242588</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1209043880959966</v>
       </c>
       <c r="E52" t="n">
-        <v>1.471778504794299</v>
+        <v>1.464194141178937</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.951915456584675</v>
+        <v>-1.951943512935806</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4043209530182709</v>
+        <v>0.404703373282592</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.09477976412063821</v>
       </c>
       <c r="E53" t="n">
-        <v>1.315100251589227</v>
+        <v>1.307865982442318</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.878192514624107</v>
+        <v>-1.878083948743646</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3640948546247063</v>
+        <v>0.3633190355238827</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.07209002818146754</v>
       </c>
       <c r="E54" t="n">
-        <v>1.209941388028388</v>
+        <v>1.203426825280042</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.900163077241926</v>
+        <v>-1.899258564878308</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2840909495349868</v>
+        <v>0.2835182340195204</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.05237634175184032</v>
       </c>
       <c r="E55" t="n">
-        <v>1.201481178321215</v>
+        <v>1.194123095276927</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.928031572803898</v>
+        <v>-1.928658571259595</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2341299072198464</v>
+        <v>0.2333138333543575</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.03499014670232216</v>
       </c>
       <c r="E56" t="n">
-        <v>1.116278919303572</v>
+        <v>1.10941853153151</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.926044451239053</v>
+        <v>-1.926054209969881</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1687384817036568</v>
+        <v>0.1689415852890139</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.01948970563472684</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9863090925332981</v>
+        <v>0.9789327118687071</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.872164058655129</v>
+        <v>-1.872802645603685</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1442519962942525</v>
+        <v>0.1444544899589329</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.005456744840868259</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8871213523978219</v>
+        <v>0.8804543094802889</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.891333865525321</v>
+        <v>-1.891986480649441</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1015551092391815</v>
+        <v>0.1017051497256615</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.007346627202285767</v>
       </c>
       <c r="E59" t="n">
-        <v>0.724803772615538</v>
+        <v>0.7196499428970169</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.900797394745744</v>
+        <v>-1.901196282868337</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08037744350113542</v>
+        <v>0.08091844314141095</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.01937166749211843</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6307790110087341</v>
+        <v>0.6250921106187353</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.898611439040279</v>
+        <v>-1.89984347880731</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02796269030343756</v>
+        <v>0.02795232165193285</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.03118606817730143</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5176436048373834</v>
+        <v>0.5120890572342388</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.894890312991439</v>
+        <v>-1.895929617824617</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01369481591227024</v>
+        <v>0.013770446076187</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.04304674192273347</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3935607324390817</v>
+        <v>0.3878616336355479</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.871374821299417</v>
+        <v>-1.871911551494956</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.02759864366560352</v>
+        <v>-0.02709667894863987</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.05506672684654371</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3071496106401239</v>
+        <v>0.3024086972197612</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.859646656606229</v>
+        <v>-1.86118060710825</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.06841331551223007</v>
+        <v>-0.06750331386252197</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.06734040161698014</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1754640770061577</v>
+        <v>0.1715325283238397</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.87069536966552</v>
+        <v>-1.8719707138006</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.07728034231079334</v>
+        <v>-0.07684912839233246</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.07989841835943093</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1152289208911962</v>
+        <v>0.1123647333931873</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.873490636127056</v>
+        <v>-1.874137761965086</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1255549539547254</v>
+        <v>-0.1248291483493952</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.09212165026219518</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.03249996622395092</v>
+        <v>-0.03640772799987572</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.844820094875161</v>
+        <v>-1.846057623928282</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1427394690221019</v>
+        <v>-0.1419862169863181</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1028480729597156</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.1212251270704909</v>
+        <v>-0.1242887586297964</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.837781610265488</v>
+        <v>-1.838415317848629</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.1682426921996452</v>
+        <v>-0.1672924357852717</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1107912768636947</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.149212557164429</v>
+        <v>-0.1507416283010364</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.839281405209611</v>
+        <v>-1.840764732295463</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.20622184282007</v>
+        <v>-0.2050940994887629</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1152241811892593</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.1358626133917676</v>
+        <v>-0.1352014593781727</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.788573210065455</v>
+        <v>-1.789677776411045</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1862365720050664</v>
+        <v>-0.1849435401703605</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1154557810977899</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.1897173893072676</v>
+        <v>-0.1902535095821291</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.824251129972509</v>
+        <v>-1.824456673240573</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.222250558205009</v>
+        <v>-0.221369222827108</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1113436359108876</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.1117121942752514</v>
+        <v>-0.1108711136620159</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.817115667975233</v>
+        <v>-1.820557450354123</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2177731305170015</v>
+        <v>-0.2160952387352676</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1028744201135943</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.05644545199307967</v>
+        <v>-0.05514632095160631</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.851793927893098</v>
+        <v>-1.855715107923911</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2231392126310309</v>
+        <v>-0.2214863275970437</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.09054753973062254</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1249022628244204</v>
+        <v>0.1268058252565511</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.868356323870191</v>
+        <v>-1.871448621701304</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2074477833803336</v>
+        <v>-0.2044530728575006</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.07489240655163136</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2539468399280675</v>
+        <v>0.2551050792932121</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.886994279910259</v>
+        <v>-1.890160378143258</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2129041337545217</v>
+        <v>-0.2098356228298023</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.05643294309149306</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3948525444324341</v>
+        <v>0.3968433255213398</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.918061199501098</v>
+        <v>-1.921247425116429</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2250574131594035</v>
+        <v>-0.2227513030806191</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.03561700325185957</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5439354554499619</v>
+        <v>0.5465501853911808</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.978950190581533</v>
+        <v>-1.983351988105624</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1972871148263877</v>
+        <v>-0.1948925662494748</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.01327591606287591</v>
       </c>
       <c r="E77" t="n">
-        <v>0.7764164801233121</v>
+        <v>0.7785707199535863</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.969022511726105</v>
+        <v>-1.971173092032318</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1216203556690236</v>
+        <v>-0.1186378435597256</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.0100036507796512</v>
       </c>
       <c r="E78" t="n">
-        <v>0.956902986945244</v>
+        <v>0.9605649506884393</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.008189787824835</v>
+        <v>-2.010053705412977</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.07303285471791986</v>
+        <v>-0.07071515614627724</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.03385969829681391</v>
       </c>
       <c r="E79" t="n">
-        <v>1.199275705154094</v>
+        <v>1.201578765629495</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.975844474495532</v>
+        <v>-1.977261320227617</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.03023594067186213</v>
+        <v>-0.02627633563841373</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.0581450132222644</v>
       </c>
       <c r="E80" t="n">
-        <v>1.366574507103379</v>
+        <v>1.369406368805521</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.010030528427261</v>
+        <v>-2.009466351801268</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.01553929204494092</v>
+        <v>-0.01238417238412322</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.08241709903522693</v>
       </c>
       <c r="E81" t="n">
-        <v>1.654214928019794</v>
+        <v>1.656824778595599</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.993842013825013</v>
+        <v>-1.99244346571323</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.01260435374842927</v>
+        <v>-0.009896915864344638</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1060673025697638</v>
       </c>
       <c r="E82" t="n">
-        <v>1.891590566124047</v>
+        <v>1.8951854385928</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.922520329568803</v>
+        <v>-1.920614937374642</v>
       </c>
       <c r="G82" t="n">
-        <v>0.06746603269505579</v>
+        <v>0.07068946347166927</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1280182240625863</v>
       </c>
       <c r="E83" t="n">
-        <v>2.152796414989524</v>
+        <v>2.1559631231432</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.880398597711905</v>
+        <v>-1.878521871789551</v>
       </c>
       <c r="G83" t="n">
-        <v>0.08606129428775057</v>
+        <v>0.08896573655042482</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1467922162299424</v>
       </c>
       <c r="E84" t="n">
-        <v>2.351845247687606</v>
+        <v>2.351717164345489</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.838046925759873</v>
+        <v>-1.835562718843478</v>
       </c>
       <c r="G84" t="n">
-        <v>0.08041098913835656</v>
+        <v>0.08270978016901999</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1614254979874468</v>
       </c>
       <c r="E85" t="n">
-        <v>2.534505511801468</v>
+        <v>2.536301118273815</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.71549861378427</v>
+        <v>-1.713655433499137</v>
       </c>
       <c r="G85" t="n">
-        <v>0.09167683395856994</v>
+        <v>0.09316687017186545</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1713376791778778</v>
       </c>
       <c r="E86" t="n">
-        <v>2.699115783407648</v>
+        <v>2.700303908885953</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.543632725807495</v>
+        <v>-1.543143569424743</v>
       </c>
       <c r="G86" t="n">
-        <v>0.05849592930212209</v>
+        <v>0.05967551589095284</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.175962815793861</v>
       </c>
       <c r="E87" t="n">
-        <v>2.802268007941986</v>
+        <v>2.803700101690991</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.362979100720134</v>
+        <v>-1.362217309794876</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1139981009655186</v>
+        <v>0.1145775256084293</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.174863125486051</v>
       </c>
       <c r="E88" t="n">
-        <v>2.908451538239763</v>
+        <v>2.910363029640691</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.193309537100329</v>
+        <v>-1.193058249781509</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0712762071627009</v>
+        <v>0.07043756623217232</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1676433566047118</v>
       </c>
       <c r="E89" t="n">
-        <v>2.865931528180949</v>
+        <v>2.867213581443473</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.014147777988294</v>
+        <v>-1.014332583953349</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08186930947646116</v>
+        <v>0.08124231102076417</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1539386703274425</v>
       </c>
       <c r="E90" t="n">
-        <v>2.843882895716507</v>
+        <v>2.844069531443592</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.8013732903806737</v>
+        <v>-0.8015025935641443</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02274176931047419</v>
+        <v>0.02062229495877468</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1345856283364614</v>
       </c>
       <c r="E91" t="n">
-        <v>2.795816267023346</v>
+        <v>2.796442045637689</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.540385183196796</v>
+        <v>-0.5404693522501872</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0009615019438010372</v>
+        <v>-0.001404990281981428</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1100596501477887</v>
       </c>
       <c r="E92" t="n">
-        <v>2.705468717176656</v>
+        <v>2.706575113284277</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3228100099424915</v>
+        <v>-0.3220598075100914</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.05205219335846341</v>
+        <v>-0.05302501683787656</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.08144100771973464</v>
       </c>
       <c r="E93" t="n">
-        <v>2.617452284156497</v>
+        <v>2.617390072247469</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.09480824271917902</v>
+        <v>-0.09523518719290266</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0923649004881263</v>
+        <v>-0.09417270537400754</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.0507655078736204</v>
       </c>
       <c r="E94" t="n">
-        <v>2.527314547022609</v>
+        <v>2.527487764494805</v>
       </c>
       <c r="F94" t="n">
-        <v>0.09494905838932327</v>
+        <v>0.0943592650949079</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1496413314001829</v>
+        <v>-0.1504842417754488</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.02184958519190225</v>
       </c>
       <c r="E95" t="n">
-        <v>2.315384189631607</v>
+        <v>2.315581803930874</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2007397997712739</v>
+        <v>0.199848705662545</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1631614430416571</v>
+        <v>-0.1648558026816632</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.002361494841666681</v>
       </c>
       <c r="E96" t="n">
-        <v>2.175023144291577</v>
+        <v>2.174188772805786</v>
       </c>
       <c r="F96" t="n">
-        <v>0.283223642332651</v>
+        <v>0.2828393923062997</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2397711395652737</v>
+        <v>-0.2403737411939008</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.02016834947061654</v>
       </c>
       <c r="E97" t="n">
-        <v>1.983328735113723</v>
+        <v>1.98270661602344</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3801351585025035</v>
+        <v>0.3812781498507293</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1997133792784915</v>
+        <v>-0.2014510432865467</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.03345661976636434</v>
       </c>
       <c r="E98" t="n">
-        <v>1.832881431542309</v>
+        <v>1.83393171494767</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4183771849346067</v>
+        <v>0.4196567985144241</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2952056100335512</v>
+        <v>-0.2968133609374591</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.04379272036646192</v>
       </c>
       <c r="E99" t="n">
-        <v>1.704463852894359</v>
+        <v>1.704014341355596</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4230937015278994</v>
+        <v>0.4237164305388592</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2736613819687795</v>
+        <v>-0.2749428253106272</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.05514555989081928</v>
       </c>
       <c r="E100" t="n">
-        <v>1.486558102633257</v>
+        <v>1.486112250618555</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4158935879388886</v>
+        <v>0.4162747883618561</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3872219028518237</v>
+        <v>-0.3895725371400107</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.06861705473697684</v>
       </c>
       <c r="E101" t="n">
-        <v>1.429008427258018</v>
+        <v>1.428680899854604</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4288293955720381</v>
+        <v>0.4293136725893761</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.4040319266236769</v>
+        <v>-0.4055128140268212</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.09071680803171447</v>
       </c>
       <c r="E102" t="n">
-        <v>1.306167353357575</v>
+        <v>1.307594567741166</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4327938799709005</v>
+        <v>0.4335453022446542</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4136930701433661</v>
+        <v>-0.4156539651191112</v>
       </c>
     </row>
   </sheetData>
